--- a/Bin_data/Virginia/Virginia62.xlsx
+++ b/Bin_data/Virginia/Virginia62.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06506716272</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.0741874392</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.07363009020000001</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.1190898534</v>
+        <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="AY18">
-        <v>0.20896405308</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3442,19 +3442,19 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04816745592</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.06506716272</v>
       </c>
       <c r="E19">
-        <v>0.04007098668</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.04726833996</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>0.0741874392</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>0.07363009020000001</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.03812361204</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>0.1190898534</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>0.20896405308</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3612,19 +3612,19 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.10554137688</v>
+        <v>0.04816745592</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04007098668</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.04726833996</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.06095284836</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.077485341</v>
+        <v>0.03812361204</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.03537913152</v>
+        <v>0</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -3782,13 +3782,13 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.05962605348</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.10174681212</v>
+        <v>0.10554137688</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3806,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.04382024436</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03843168912</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.05028444168</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>0.06095284836</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.077485341</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>0.03537913152</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -3952,13 +3952,13 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.05962605348</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.10174681212</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.070958964</v>
+        <v>0.04382024436</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03843168912</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.05028444168</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.070958964</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>0.05791594632</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>0.07547971439999999</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -4287,15 +4287,15 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0.25028886756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0.49394331816</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.05102949144</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0.15153154824</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>0.05791594632</v>
       </c>
       <c r="AN24">
-        <v>0.0451292262</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.07547971439999999</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>0.04005566304</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -4457,15 +4457,15 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0.39255177108</v>
+        <v>0.25028886756</v>
       </c>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.49394331816</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.05102949144</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.04146975288</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>0.15153154824</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.0451292262</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>0.04005566304</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -4627,12 +4627,12 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>0.39255177108</v>
       </c>
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04146975288</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0.08286637272</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.24089497836</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -4746,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0.03272443536</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0.17559099072</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -4776,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="AW26">
-        <v>0.08388785652</v>
+        <v>0</v>
       </c>
       <c r="AX26">
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0.28971725712</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -4797,12 +4797,12 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>0.04765364376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.03048469452</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.08286637272</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.03026136768</v>
+        <v>0.24089497836</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>0.03272443536</v>
       </c>
       <c r="AN27">
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.17559099072</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -4946,16 +4946,16 @@
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>0.08388785652</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>0.28971725712</v>
       </c>
       <c r="AZ27">
-        <v>0.25011897984</v>
+        <v>0</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -4967,12 +4967,12 @@
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>0.21950052156</v>
+        <v>0.04765364376</v>
       </c>
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.03048469452</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0.04146980820000001</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>0.03026136768</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -5119,30 +5119,30 @@
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>0.12594278436</v>
+        <v>0</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0.25596431232</v>
+        <v>0.25011897984</v>
       </c>
       <c r="BA28">
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>0.31260070704</v>
+        <v>0</v>
       </c>
       <c r="BC28">
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0.92245275732</v>
+        <v>0.21950052156</v>
       </c>
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.04146980820000001</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -5238,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.07967197464</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.10577532516</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -5268,51 +5268,51 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0.09656139192</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.19025217372</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>0.19894493724</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>0.31432508676</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>0.22046751516</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>0.40608071964</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>0.12594278436</v>
       </c>
       <c r="AY29">
-        <v>1.12941970308</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0.8811868033200001</v>
+        <v>0.25596431232</v>
       </c>
       <c r="BA29">
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.4481301708</v>
+        <v>0.31260070704</v>
       </c>
       <c r="BC29">
-        <v>1.25978664912</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>1.13174828784</v>
+        <v>0.92245275732</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.23974349256</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.5085050357999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5339,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.44853129612</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.60750659292</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5372,13 +5372,13 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0.30702804684</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0.08815651368000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.15697321068</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -5402,421 +5402,931 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.22261730568</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.31273469208</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.15514671024</v>
+        <v>0.07967197464</v>
       </c>
       <c r="AH30">
-        <v>0.23420225412</v>
+        <v>0.10577532516</v>
       </c>
       <c r="AI30">
-        <v>0.39188461188</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.38769959856</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>0.14525820492</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.32582550624</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>0.41213278296</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.33358220004</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.75168141096</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.1387649646</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>8.087302716</v>
+        <v>0.09656139192</v>
       </c>
       <c r="AR30">
-        <v>9.215693799</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>9.89612565</v>
+        <v>0.19025217372</v>
       </c>
       <c r="AT30">
-        <v>10.21023581856</v>
+        <v>0.19894493724</v>
       </c>
       <c r="AU30">
-        <v>10.0885219716</v>
+        <v>0.31432508676</v>
       </c>
       <c r="AV30">
-        <v>10.36052222424</v>
+        <v>0.22046751516</v>
       </c>
       <c r="AW30">
-        <v>11.20672604256</v>
+        <v>0.40608071964</v>
       </c>
       <c r="AX30">
-        <v>9.79136743836</v>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <v>8.14220410956</v>
+        <v>1.12941970308</v>
       </c>
       <c r="AZ30">
-        <v>9.90853486644</v>
+        <v>0.8811868033200001</v>
       </c>
       <c r="BA30">
-        <v>18.06379693008</v>
+        <v>0</v>
       </c>
       <c r="BB30">
-        <v>17.91690473832</v>
+        <v>0.4481301708</v>
       </c>
       <c r="BC30">
-        <v>20.87915730648</v>
+        <v>1.25978664912</v>
       </c>
       <c r="BD30">
-        <v>9.113987868360001</v>
+        <v>1.13174828784</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
-        <v>0.82075540128</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.8270887668</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.596534922</v>
+        <v>0.23974349256</v>
       </c>
       <c r="E31">
-        <v>0.5546610012000001</v>
+        <v>0.5085050357999999</v>
       </c>
       <c r="F31">
-        <v>0.4667052438</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.5996704596000001</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.5057379294</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.9200123708400001</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.41235146292</v>
+        <v>0.44853129612</v>
       </c>
       <c r="K31">
-        <v>1.0961978856</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.3720917244</v>
+        <v>0.60750659292</v>
       </c>
       <c r="M31">
-        <v>1.00415857176</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0.5550785012399999</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.5210414329199999</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.32206961016</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.27365443268</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>3.52445457048</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.69285274136</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3.885795129479999</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>4.07722052976</v>
+        <v>0.30702804684</v>
       </c>
       <c r="V31">
-        <v>5.06855581488</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>5.00095162164</v>
+        <v>0.08815651368000001</v>
       </c>
       <c r="X31">
-        <v>5.261596448520001</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>5.07374034996</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>4.73874583032</v>
+        <v>0.15697321068</v>
       </c>
       <c r="AA31">
-        <v>5.43368396832</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>5.71962115452</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>5.90822307732</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>5.49749979264</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>5.31971486604</v>
+        <v>0.22261730568</v>
       </c>
       <c r="AF31">
-        <v>5.9592175512</v>
+        <v>0.31273469208</v>
       </c>
       <c r="AG31">
-        <v>5.55909418704</v>
+        <v>0.15514671024</v>
       </c>
       <c r="AH31">
-        <v>5.6923032534</v>
+        <v>0.23420225412</v>
       </c>
       <c r="AI31">
-        <v>5.96846030616</v>
+        <v>0.39188461188</v>
       </c>
       <c r="AJ31">
-        <v>5.79441523284</v>
+        <v>0.38769959856</v>
       </c>
       <c r="AK31">
-        <v>5.888355009960001</v>
+        <v>0.14525820492</v>
       </c>
       <c r="AL31">
-        <v>5.56537051764</v>
+        <v>0.32582550624</v>
       </c>
       <c r="AM31">
-        <v>5.88858132408</v>
+        <v>0.41213278296</v>
       </c>
       <c r="AN31">
-        <v>5.97677866392</v>
+        <v>0.33358220004</v>
       </c>
       <c r="AO31">
-        <v>6.52417653636</v>
+        <v>0.75168141096</v>
       </c>
       <c r="AP31">
-        <v>7.1160682848</v>
+        <v>0.1387649646</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>8.087302716</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>9.215693799</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>9.89612565</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>10.21023581856</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>10.0885219716</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>10.36052222424</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>11.20672604256</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>9.79136743836</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>8.14220410956</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>9.90853486644</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>18.06379693008</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>17.91690473832</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>20.87915730648</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>9.113987868360001</v>
       </c>
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0.82075540128</v>
+      </c>
+      <c r="C32">
+        <v>0.8270887668</v>
+      </c>
+      <c r="D32">
+        <v>0.596534922</v>
+      </c>
+      <c r="E32">
+        <v>0.5546610012000001</v>
+      </c>
+      <c r="F32">
+        <v>0.4667052438</v>
+      </c>
+      <c r="G32">
+        <v>0.5996704596000001</v>
+      </c>
+      <c r="H32">
+        <v>0.5057379294</v>
+      </c>
+      <c r="I32">
+        <v>0.9200123708400001</v>
+      </c>
+      <c r="J32">
+        <v>0.41235146292</v>
+      </c>
+      <c r="K32">
+        <v>1.0961978856</v>
+      </c>
+      <c r="L32">
+        <v>0.3720917244</v>
+      </c>
+      <c r="M32">
+        <v>1.00415857176</v>
+      </c>
+      <c r="N32">
+        <v>0.5550785012399999</v>
+      </c>
+      <c r="O32">
+        <v>0.5210414329199999</v>
+      </c>
+      <c r="P32">
+        <v>0.32206961016</v>
+      </c>
+      <c r="Q32">
+        <v>1.27365443268</v>
+      </c>
+      <c r="R32">
+        <v>3.52445457048</v>
+      </c>
+      <c r="S32">
+        <v>1.69285274136</v>
+      </c>
+      <c r="T32">
+        <v>3.885795129479999</v>
+      </c>
+      <c r="U32">
+        <v>4.07722052976</v>
+      </c>
+      <c r="V32">
+        <v>5.06855581488</v>
+      </c>
+      <c r="W32">
+        <v>5.00095162164</v>
+      </c>
+      <c r="X32">
+        <v>5.261596448520001</v>
+      </c>
+      <c r="Y32">
+        <v>5.07374034996</v>
+      </c>
+      <c r="Z32">
+        <v>4.73874583032</v>
+      </c>
+      <c r="AA32">
+        <v>5.43368396832</v>
+      </c>
+      <c r="AB32">
+        <v>5.71962115452</v>
+      </c>
+      <c r="AC32">
+        <v>5.90822307732</v>
+      </c>
+      <c r="AD32">
+        <v>5.49749979264</v>
+      </c>
+      <c r="AE32">
+        <v>5.31971486604</v>
+      </c>
+      <c r="AF32">
+        <v>5.9592175512</v>
+      </c>
+      <c r="AG32">
+        <v>5.55909418704</v>
+      </c>
+      <c r="AH32">
+        <v>5.6923032534</v>
+      </c>
+      <c r="AI32">
+        <v>5.96846030616</v>
+      </c>
+      <c r="AJ32">
+        <v>5.79441523284</v>
+      </c>
+      <c r="AK32">
+        <v>5.888355009960001</v>
+      </c>
+      <c r="AL32">
+        <v>5.56537051764</v>
+      </c>
+      <c r="AM32">
+        <v>5.88858132408</v>
+      </c>
+      <c r="AN32">
+        <v>5.97677866392</v>
+      </c>
+      <c r="AO32">
+        <v>6.52417653636</v>
+      </c>
+      <c r="AP32">
+        <v>7.1160682848</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>0.96</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>0.50486105208</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>0.57604428336</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>0.61415716332</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>1.21010525076</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>1.80028849632</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Virginia/Virginia62.xlsx
+++ b/Bin_data/Virginia/Virginia62.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5819,6 +5819,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
